--- a/src/assets/file/question_excel.xlsx
+++ b/src/assets/file/question_excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19944" windowHeight="8400"/>
+    <workbookView windowWidth="16368" windowHeight="7835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>Chuyên đề</t>
   </si>
@@ -38,10 +38,19 @@
     <t>Câu hỏi</t>
   </si>
   <si>
+    <t>Đáp án (1)</t>
+  </si>
+  <si>
+    <t>Đáp án (2)</t>
+  </si>
+  <si>
+    <t>Đáp án (3)</t>
+  </si>
+  <si>
+    <t>Đáp án (4)</t>
+  </si>
+  <si>
     <t>Đáp án đúng</t>
-  </si>
-  <si>
-    <t>Đáp án</t>
   </si>
   <si>
     <t>Các nền văn minh cổ đại phương Đông</t>
@@ -1304,13 +1313,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="33.6666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.1111111111111" style="2" customWidth="1"/>
@@ -1318,10 +1327,11 @@
     <col min="4" max="4" width="21.1111111111111" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.3333333333333" style="2" customWidth="1"/>
     <col min="6" max="7" width="14.4444444444444" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88888888888889" style="2"/>
+    <col min="8" max="8" width="12.2222222222222" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27.6" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1338,148 +1348,169 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" ht="22" customHeight="1" spans="1:7">
+    <row r="2" ht="22" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
+      <c r="G6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>11</v>
+      <c r="H7" s="2">
+        <v>2.3</v>
       </c>
     </row>
   </sheetData>
